--- a/percent_change_calculator.xlsx
+++ b/percent_change_calculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlybauer/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlybauer/Documents/R/BVR/WQDashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81BF0C0-8223-F346-BF86-0567F14D248C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61E8370-779C-1F48-A1CC-1F4B2826A7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6420" yWindow="500" windowWidth="22000" windowHeight="16100" xr2:uid="{D689BE3F-D1F5-3E4E-B747-3E275065848F}"/>
   </bookViews>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">The number that appears here tells us the percent difference between two scenarios. For example, a value of 20% would tell us that the second value is 20% greater than the first value. </t>
   </si>
   <si>
-    <t xml:space="preserve">Focusing on one variable at a time (nitrate or phosphorus) compare the percent change in nutrient concentrations between the different burn scenarios using the data above and the percent calculator below.  Type the first value in cell A14 and the second value in cell B14. The percent change between the two values will calculate in cell C13. </t>
+    <t xml:space="preserve">Focusing on one variable at a time (nitrate or phosphorus) compare the percent change in nutrient concentrations between the different burn scenarios using the data above and the percent calculator below.  Type the first value (smaller number) in cell A14 and the second value (bigger number) in cell B14. The percent change between the two values will calculate in cell C13. </t>
   </si>
 </sst>
 </file>
@@ -156,21 +156,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,7 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A08BDB-70A9-734B-A3C3-564C41211DC1}">
   <dimension ref="A1:E5121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -520,12 +519,12 @@
     <col min="6" max="16384" width="10.83203125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -536,7 +535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -547,7 +546,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0.25</v>
       </c>
@@ -558,7 +557,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0.5</v>
       </c>
@@ -569,7 +568,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -580,26 +579,26 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:4" s="8" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -610,30 +609,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="8" t="e">
+      <c r="C13" s="6" t="e">
         <f>((B13-A13)/A13)*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="7" t="s">
+    <row r="14" spans="1:4" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="5121" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D5121" s="9"/>
-    </row>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2"/>
+    <row r="5121" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A11:C11"/>
